--- a/informes/contables/LibroVentas_detallado.xlsx
+++ b/informes/contables/LibroVentas_detallado.xlsx
@@ -1186,7 +1186,7 @@
         <v>68180.0</v>
       </c>
       <c r="V3" t="n">
-        <v>68179.0</v>
+        <v>68180.0</v>
       </c>
       <c r="W3" t="n">
         <v>13640.0</v>
@@ -2040,7 +2040,7 @@
         <v>2063636.0</v>
       </c>
       <c r="V9" t="n">
-        <v>2063636.0</v>
+        <v>2063637.0</v>
       </c>
       <c r="W9" t="n">
         <v>412727.0</v>
@@ -2184,7 +2184,7 @@
         <v>1654545.0</v>
       </c>
       <c r="V10" t="n">
-        <v>1654545.0</v>
+        <v>1654546.0</v>
       </c>
       <c r="W10" t="n">
         <v>330909.0</v>
@@ -2472,7 +2472,7 @@
         <v>388636.0</v>
       </c>
       <c r="V12" t="n">
-        <v>388636.0</v>
+        <v>388637.0</v>
       </c>
       <c r="W12" t="n">
         <v>77727.0</v>
@@ -2758,7 +2758,7 @@
         <v>45454.0</v>
       </c>
       <c r="V14" t="n">
-        <v>45453.0</v>
+        <v>45454.0</v>
       </c>
       <c r="W14" t="n">
         <v>9092.0</v>
@@ -3042,7 +3042,7 @@
         <v>90682.0</v>
       </c>
       <c r="V16" t="n">
-        <v>90681.0</v>
+        <v>90682.0</v>
       </c>
       <c r="W16" t="n">
         <v>18136.0</v>
@@ -3186,7 +3186,7 @@
         <v>227274.0</v>
       </c>
       <c r="V17" t="n">
-        <v>227273.0</v>
+        <v>227274.0</v>
       </c>
       <c r="W17" t="n">
         <v>45452.0</v>
@@ -3328,7 +3328,7 @@
         <v>113640.0</v>
       </c>
       <c r="V18" t="n">
-        <v>113639.0</v>
+        <v>113640.0</v>
       </c>
       <c r="W18" t="n">
         <v>22720.0</v>
@@ -3470,7 +3470,7 @@
         <v>54545.0</v>
       </c>
       <c r="V19" t="n">
-        <v>54544.0</v>
+        <v>54545.0</v>
       </c>
       <c r="W19" t="n">
         <v>10910.0</v>
@@ -3612,7 +3612,7 @@
         <v>45454.0</v>
       </c>
       <c r="V20" t="n">
-        <v>45454.0</v>
+        <v>45455.0</v>
       </c>
       <c r="W20" t="n">
         <v>9091.0</v>
@@ -3896,7 +3896,7 @@
         <v>22727.0</v>
       </c>
       <c r="V22" t="n">
-        <v>22727.0</v>
+        <v>22728.0</v>
       </c>
       <c r="W22" t="n">
         <v>4545.0</v>
@@ -5614,7 +5614,7 @@
         <v>34091.0</v>
       </c>
       <c r="V34" t="n">
-        <v>34090.0</v>
+        <v>34091.0</v>
       </c>
       <c r="W34" t="n">
         <v>6818.0</v>
@@ -5758,7 +5758,7 @@
         <v>54545.0</v>
       </c>
       <c r="V35" t="n">
-        <v>54544.0</v>
+        <v>54545.0</v>
       </c>
       <c r="W35" t="n">
         <v>10910.0</v>
@@ -5902,7 +5902,7 @@
         <v>22727.0</v>
       </c>
       <c r="V36" t="n">
-        <v>22726.0</v>
+        <v>22727.0</v>
       </c>
       <c r="W36" t="n">
         <v>4546.0</v>
@@ -6332,7 +6332,7 @@
         <v>56819.0</v>
       </c>
       <c r="V39" t="n">
-        <v>56818.0</v>
+        <v>56819.0</v>
       </c>
       <c r="W39" t="n">
         <v>11362.0</v>
@@ -6474,7 +6474,7 @@
         <v>204545.0</v>
       </c>
       <c r="V40" t="n">
-        <v>204545.0</v>
+        <v>204546.0</v>
       </c>
       <c r="W40" t="n">
         <v>40909.0</v>
@@ -6760,7 +6760,7 @@
         <v>258636.0</v>
       </c>
       <c r="V42" t="n">
-        <v>258636.0</v>
+        <v>258637.0</v>
       </c>
       <c r="W42" t="n">
         <v>51727.0</v>
@@ -6904,7 +6904,7 @@
         <v>188636.0</v>
       </c>
       <c r="V43" t="n">
-        <v>188636.0</v>
+        <v>188637.0</v>
       </c>
       <c r="W43" t="n">
         <v>37727.0</v>
@@ -7048,7 +7048,7 @@
         <v>329545.0</v>
       </c>
       <c r="V44" t="n">
-        <v>329545.0</v>
+        <v>329546.0</v>
       </c>
       <c r="W44" t="n">
         <v>65909.0</v>
@@ -7192,7 +7192,7 @@
         <v>163637.0</v>
       </c>
       <c r="V45" t="n">
-        <v>163636.0</v>
+        <v>163637.0</v>
       </c>
       <c r="W45" t="n">
         <v>32726.0</v>
@@ -7618,7 +7618,7 @@
         <v>463636.0</v>
       </c>
       <c r="V48" t="n">
-        <v>463636.0</v>
+        <v>463637.0</v>
       </c>
       <c r="W48" t="n">
         <v>92727.0</v>
@@ -8912,7 +8912,7 @@
         <v>2053636.0</v>
       </c>
       <c r="V57" t="n">
-        <v>2053636.0</v>
+        <v>2053637.0</v>
       </c>
       <c r="W57" t="n">
         <v>410727.0</v>
@@ -9774,7 +9774,7 @@
         <v>1.5909091E7</v>
       </c>
       <c r="V63" t="n">
-        <v>1.590909E7</v>
+        <v>1.5909091E7</v>
       </c>
       <c r="W63" t="n">
         <v>3181818.0</v>
@@ -9916,7 +9916,7 @@
         <v>160909.0</v>
       </c>
       <c r="V64" t="n">
-        <v>160909.0</v>
+        <v>160910.0</v>
       </c>
       <c r="W64" t="n">
         <v>32181.0</v>
@@ -10204,7 +10204,7 @@
         <v>68181.0</v>
       </c>
       <c r="V66" t="n">
-        <v>68181.0</v>
+        <v>68182.0</v>
       </c>
       <c r="W66" t="n">
         <v>13637.0</v>
@@ -10630,7 +10630,7 @@
         <v>340907.0</v>
       </c>
       <c r="V69" t="n">
-        <v>340906.0</v>
+        <v>340907.0</v>
       </c>
       <c r="W69" t="n">
         <v>68186.0</v>
@@ -10772,7 +10772,7 @@
         <v>54545.0</v>
       </c>
       <c r="V70" t="n">
-        <v>54545.0</v>
+        <v>54546.0</v>
       </c>
       <c r="W70" t="n">
         <v>10909.0</v>
@@ -11200,7 +11200,7 @@
         <v>81818.0</v>
       </c>
       <c r="V73" t="n">
-        <v>81817.0</v>
+        <v>81818.0</v>
       </c>
       <c r="W73" t="n">
         <v>16364.0</v>
@@ -11774,7 +11774,7 @@
         <v>1009091.0</v>
       </c>
       <c r="V77" t="n">
-        <v>1009090.0</v>
+        <v>1009091.0</v>
       </c>
       <c r="W77" t="n">
         <v>201818.0</v>
@@ -12062,7 +12062,7 @@
         <v>72728.0</v>
       </c>
       <c r="V79" t="n">
-        <v>72727.0</v>
+        <v>72728.0</v>
       </c>
       <c r="W79" t="n">
         <v>14544.0</v>
@@ -12348,7 +12348,7 @@
         <v>472727.0</v>
       </c>
       <c r="V81" t="n">
-        <v>472727.0</v>
+        <v>472728.0</v>
       </c>
       <c r="W81" t="n">
         <v>94545.0</v>
@@ -12492,7 +12492,7 @@
         <v>709091.0</v>
       </c>
       <c r="V82" t="n">
-        <v>709090.0</v>
+        <v>709091.0</v>
       </c>
       <c r="W82" t="n">
         <v>141818.0</v>
@@ -12922,7 +12922,7 @@
         <v>79091.0</v>
       </c>
       <c r="V85" t="n">
-        <v>79090.0</v>
+        <v>79091.0</v>
       </c>
       <c r="W85" t="n">
         <v>15818.0</v>
@@ -13064,7 +13064,7 @@
         <v>68181.0</v>
       </c>
       <c r="V86" t="n">
-        <v>68181.0</v>
+        <v>68182.0</v>
       </c>
       <c r="W86" t="n">
         <v>13637.0</v>
@@ -13206,7 +13206,7 @@
         <v>38636.0</v>
       </c>
       <c r="V87" t="n">
-        <v>38636.0</v>
+        <v>38637.0</v>
       </c>
       <c r="W87" t="n">
         <v>7727.0</v>
@@ -13350,7 +13350,7 @@
         <v>72728.0</v>
       </c>
       <c r="V88" t="n">
-        <v>72727.0</v>
+        <v>72728.0</v>
       </c>
       <c r="W88" t="n">
         <v>14544.0</v>

--- a/informes/contables/LibroVentas_detallado.xlsx
+++ b/informes/contables/LibroVentas_detallado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="256">
   <si>
     <t>ven_tipimp</t>
   </si>
@@ -263,6 +263,324 @@
     <t>02/07/2021</t>
   </si>
   <si>
+    <t>001-001-0004907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3501908-5      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICIA FRETES                 </t>
+  </si>
+  <si>
+    <t>001-001-0004908</t>
+  </si>
+  <si>
+    <t>001-001-0004909</t>
+  </si>
+  <si>
+    <t>001-001-0004910</t>
+  </si>
+  <si>
+    <t>001-001-0004911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2495790-9      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANILO ZANOTTI                </t>
+  </si>
+  <si>
+    <t>001-001-0004912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77708-7        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE GAYOL                   </t>
+  </si>
+  <si>
+    <t>001-001-0004913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1208854-4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLORIA ESPINOLA               </t>
+  </si>
+  <si>
+    <t>001-001-0004914</t>
+  </si>
+  <si>
+    <t>001-001-0004915</t>
+  </si>
+  <si>
+    <t>001-001-0004916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2165648-7      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL ARRUA                   </t>
+  </si>
+  <si>
+    <t>001-001-0004917</t>
+  </si>
+  <si>
+    <t>03/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004918</t>
+  </si>
+  <si>
+    <t>001-001-0004919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">709202-4       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIBAL RIVEROS                </t>
+  </si>
+  <si>
+    <t>001-001-0000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397276-3       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILIO GARCIA                 </t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46130100-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS SEBASTIAN ACOSTA         </t>
+  </si>
+  <si>
+    <t>001-001-0000134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3806315        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCAR ROA                     </t>
+  </si>
+  <si>
+    <t>06/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0000135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80001912-1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALLUSTRO Y CIA S.A           </t>
+  </si>
+  <si>
+    <t>07/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80102213-4     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASABLANCA UNION S.A          </t>
+  </si>
+  <si>
+    <t>001-001-0004922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1669791-0      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUELI MORINIGO                </t>
+  </si>
+  <si>
+    <t>001-001-0000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1649935-2      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE BALMACEDA               </t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499241-8      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS MORINIGO               </t>
+  </si>
+  <si>
+    <t>001-001-0004923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3016354-4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILO GOMEZ                  </t>
+  </si>
+  <si>
+    <t>001-001-0004924</t>
+  </si>
+  <si>
+    <t>001-001-0004925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6182315-5      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA SANCHEZ               </t>
+  </si>
+  <si>
+    <t>001-001-0004926</t>
+  </si>
+  <si>
+    <t>001-001-0000002</t>
+  </si>
+  <si>
+    <t>Nota de crédito</t>
+  </si>
+  <si>
+    <t>001-001-0000138</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004927</t>
+  </si>
+  <si>
+    <t>001-001-0004928</t>
+  </si>
+  <si>
+    <t>12/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004929</t>
+  </si>
+  <si>
+    <t>001-001-0004930</t>
+  </si>
+  <si>
+    <t>13/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004931</t>
+  </si>
+  <si>
+    <t>001-001-0004932</t>
+  </si>
+  <si>
+    <t>001-001-0004933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776982-2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA  ANDREA  ABBATE         </t>
+  </si>
+  <si>
+    <t>001-001-0004934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3571529-4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE SANABRIA                </t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80047555-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO TRANSMISION S.A          </t>
+  </si>
+  <si>
+    <t>001-001-0004937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80037567-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA VIVIANA SRL              </t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0004938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6254968        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO BARZALA               </t>
+  </si>
+  <si>
+    <t>001-001-0004939</t>
+  </si>
+  <si>
+    <t>17/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0000139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4626934-7      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVIA  ACOSTA                </t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>001-001-0000140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2854193-6      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACCILAN MV FASHION           </t>
+  </si>
+  <si>
+    <t>001-001-0000141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3539344-0      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELLI MULLING PARIS        </t>
+  </si>
+  <si>
+    <t>001-001-0000142</t>
+  </si>
+  <si>
+    <t>001-001-0000003</t>
+  </si>
+  <si>
+    <t>Anulado</t>
+  </si>
+  <si>
     <t>41113</t>
   </si>
   <si>
@@ -270,324 +588,6 @@
   </si>
   <si>
     <t>AGENTES DIPLOMATICOS</t>
-  </si>
-  <si>
-    <t>001-001-0004907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3501908-5      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICIA FRETES                 </t>
-  </si>
-  <si>
-    <t>001-001-0004908</t>
-  </si>
-  <si>
-    <t>001-001-0004909</t>
-  </si>
-  <si>
-    <t>001-001-0004910</t>
-  </si>
-  <si>
-    <t>001-001-0004911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2495790-9      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANILO ZANOTTI                </t>
-  </si>
-  <si>
-    <t>001-001-0004912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77708-7        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRE GAYOL                   </t>
-  </si>
-  <si>
-    <t>001-001-0004913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1208854-4      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLORIA ESPINOLA               </t>
-  </si>
-  <si>
-    <t>001-001-0004914</t>
-  </si>
-  <si>
-    <t>001-001-0004915</t>
-  </si>
-  <si>
-    <t>001-001-0004916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2165648-7      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL ARRUA                   </t>
-  </si>
-  <si>
-    <t>001-001-0004917</t>
-  </si>
-  <si>
-    <t>03/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004918</t>
-  </si>
-  <si>
-    <t>001-001-0004919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">709202-4       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIBAL RIVEROS                </t>
-  </si>
-  <si>
-    <t>001-001-0000133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397276-3       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMILIO GARCIA                 </t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46130100-0     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS SEBASTIAN ACOSTA         </t>
-  </si>
-  <si>
-    <t>001-001-0000134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3806315        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSCAR ROA                     </t>
-  </si>
-  <si>
-    <t>06/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0000135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80001912-1     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALLUSTRO Y CIA S.A           </t>
-  </si>
-  <si>
-    <t>07/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80102213-4     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASABLANCA UNION S.A          </t>
-  </si>
-  <si>
-    <t>001-001-0004922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1669791-0      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZUELI MORINIGO                </t>
-  </si>
-  <si>
-    <t>001-001-0000136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1649935-2      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE BALMACEDA               </t>
-  </si>
-  <si>
-    <t>08/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499241-8      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCOS MORINIGO               </t>
-  </si>
-  <si>
-    <t>001-001-0004923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3016354-4      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILO GOMEZ                  </t>
-  </si>
-  <si>
-    <t>001-001-0004924</t>
-  </si>
-  <si>
-    <t>001-001-0004925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6182315-5      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA SANCHEZ               </t>
-  </si>
-  <si>
-    <t>001-001-0004926</t>
-  </si>
-  <si>
-    <t>001-001-0000002</t>
-  </si>
-  <si>
-    <t>Nota de crédito</t>
-  </si>
-  <si>
-    <t>001-001-0000138</t>
-  </si>
-  <si>
-    <t>09/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004927</t>
-  </si>
-  <si>
-    <t>001-001-0004928</t>
-  </si>
-  <si>
-    <t>12/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004929</t>
-  </si>
-  <si>
-    <t>001-001-0004930</t>
-  </si>
-  <si>
-    <t>13/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004931</t>
-  </si>
-  <si>
-    <t>001-001-0004932</t>
-  </si>
-  <si>
-    <t>001-001-0004933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776982-2       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA  ANDREA  ABBATE         </t>
-  </si>
-  <si>
-    <t>001-001-0004934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3571529-4      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE SANABRIA                </t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80047555-0     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO TRANSMISION S.A          </t>
-  </si>
-  <si>
-    <t>001-001-0004937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80037567-0     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASA VIVIANA SRL              </t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0004938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6254968        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUSTAVO BARZALA               </t>
-  </si>
-  <si>
-    <t>001-001-0004939</t>
-  </si>
-  <si>
-    <t>17/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0000139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4626934-7      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVIA  ACOSTA                </t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
-  </si>
-  <si>
-    <t>001-001-0000140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2854193-6      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACCILAN MV FASHION           </t>
-  </si>
-  <si>
-    <t>001-001-0000141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3539344-0      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHELLI MULLING PARIS        </t>
-  </si>
-  <si>
-    <t>001-001-0000142</t>
-  </si>
-  <si>
-    <t>001-001-0000003</t>
-  </si>
-  <si>
-    <t>Anulado</t>
   </si>
   <si>
     <t>001-001-0000004</t>
@@ -2307,13 +2307,13 @@
         <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
         <v>81</v>
@@ -2328,7 +2328,7 @@
         <v>37500.0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0</v>
+        <v>37500.0</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
@@ -2403,7 +2403,7 @@
         <v>49</v>
       </c>
       <c r="AU11" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV11"/>
     </row>
@@ -2433,7 +2433,7 @@
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
@@ -2451,13 +2451,13 @@
         <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
         <v>57</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
         <v>55</v>
@@ -2577,7 +2577,7 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
@@ -2719,7 +2719,7 @@
         <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -2861,7 +2861,7 @@
         <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
@@ -3003,7 +3003,7 @@
         <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
@@ -3021,13 +3021,13 @@
         <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
         <v>57</v>
       </c>
       <c r="Q16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
         <v>55</v>
@@ -3147,7 +3147,7 @@
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -3165,13 +3165,13 @@
         <v>49</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s">
         <v>57</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R17" t="s">
         <v>55</v>
@@ -3289,7 +3289,7 @@
         <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
@@ -3307,13 +3307,13 @@
         <v>49</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P18" t="s">
         <v>57</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
         <v>55</v>
@@ -3431,7 +3431,7 @@
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -3573,7 +3573,7 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
@@ -3715,7 +3715,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
@@ -3733,13 +3733,13 @@
         <v>49</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
         <v>57</v>
       </c>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
         <v>55</v>
@@ -3857,7 +3857,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J22" t="n">
         <v>0.0</v>
@@ -3887,7 +3887,7 @@
         <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T22" t="n">
         <v>50000.0</v>
@@ -3999,7 +3999,7 @@
         <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J23" t="n">
         <v>0.0</v>
@@ -4017,19 +4017,19 @@
         <v>49</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s">
         <v>57</v>
       </c>
       <c r="Q23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
         <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T23" t="n">
         <v>175000.0</v>
@@ -4141,7 +4141,7 @@
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -4159,19 +4159,19 @@
         <v>49</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
         <v>57</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R24" t="s">
         <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T24" t="n">
         <v>250000.0</v>
@@ -4283,7 +4283,7 @@
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -4301,19 +4301,19 @@
         <v>49</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="P25" t="s">
         <v>49</v>
       </c>
       <c r="Q25" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="R25" t="s">
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T25" t="n">
         <v>760000.0</v>
@@ -4322,7 +4322,7 @@
         <v>380000.0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0</v>
+        <v>380000.0</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
@@ -4343,7 +4343,7 @@
         <v>1.0</v>
       </c>
       <c r="AC25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="n">
         <v>0.0</v>
@@ -4397,7 +4397,7 @@
         <v>49</v>
       </c>
       <c r="AU25" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV25"/>
     </row>
@@ -4427,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
@@ -4445,19 +4445,19 @@
         <v>49</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P26" t="s">
         <v>57</v>
       </c>
       <c r="Q26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R26" t="s">
         <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T26" t="n">
         <v>120000.0</v>
@@ -4569,7 +4569,7 @@
         <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -4587,19 +4587,19 @@
         <v>49</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P27" t="s">
         <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R27" t="s">
         <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T27" t="n">
         <v>835000.0</v>
@@ -4608,7 +4608,7 @@
         <v>417500.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0</v>
+        <v>417500.0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
@@ -4629,7 +4629,7 @@
         <v>1.0</v>
       </c>
       <c r="AC27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AD27" t="n">
         <v>0.0</v>
@@ -4683,7 +4683,7 @@
         <v>49</v>
       </c>
       <c r="AU27" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV27"/>
     </row>
@@ -4713,7 +4713,7 @@
         <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -4731,19 +4731,19 @@
         <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="P28" t="s">
         <v>49</v>
       </c>
       <c r="Q28" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="R28" t="s">
         <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T28" t="n">
         <v>3145000.0</v>
@@ -4752,7 +4752,7 @@
         <v>1572500.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>1572500.0</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
@@ -4773,7 +4773,7 @@
         <v>1.0</v>
       </c>
       <c r="AC28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AD28" t="n">
         <v>0.0</v>
@@ -4827,7 +4827,7 @@
         <v>49</v>
       </c>
       <c r="AU28" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV28"/>
     </row>
@@ -4857,7 +4857,7 @@
         <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -4875,19 +4875,19 @@
         <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
         <v>57</v>
       </c>
       <c r="Q29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R29" t="s">
         <v>55</v>
       </c>
       <c r="S29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T29" t="n">
         <v>2820000.0</v>
@@ -4917,7 +4917,7 @@
         <v>1.0</v>
       </c>
       <c r="AC29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AD29" t="n">
         <v>0.0</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
@@ -5019,19 +5019,19 @@
         <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s">
         <v>57</v>
       </c>
       <c r="Q30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R30" t="s">
         <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T30" t="n">
         <v>3135000.0</v>
@@ -5061,7 +5061,7 @@
         <v>1.0</v>
       </c>
       <c r="AC30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AD30" t="n">
         <v>0.0</v>
@@ -5145,7 +5145,7 @@
         <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
@@ -5163,19 +5163,19 @@
         <v>49</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="P31" t="s">
         <v>49</v>
       </c>
       <c r="Q31" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="R31" t="s">
         <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T31" t="n">
         <v>435000.0</v>
@@ -5184,7 +5184,7 @@
         <v>217500.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>217500.0</v>
       </c>
       <c r="W31" t="n">
         <v>0.0</v>
@@ -5205,7 +5205,7 @@
         <v>1.0</v>
       </c>
       <c r="AC31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD31" t="n">
         <v>0.0</v>
@@ -5259,7 +5259,7 @@
         <v>49</v>
       </c>
       <c r="AU31" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV31"/>
     </row>
@@ -5289,7 +5289,7 @@
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -5307,19 +5307,19 @@
         <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
         <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="R32" t="s">
         <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T32" t="n">
         <v>562400.0</v>
@@ -5328,7 +5328,7 @@
         <v>281200.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>281200.0</v>
       </c>
       <c r="W32" t="n">
         <v>0.0</v>
@@ -5349,7 +5349,7 @@
         <v>1.0</v>
       </c>
       <c r="AC32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD32" t="n">
         <v>0.0</v>
@@ -5403,7 +5403,7 @@
         <v>49</v>
       </c>
       <c r="AU32" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV32"/>
     </row>
@@ -5433,7 +5433,7 @@
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
@@ -5451,19 +5451,19 @@
         <v>49</v>
       </c>
       <c r="O33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P33" t="s">
         <v>57</v>
       </c>
       <c r="Q33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R33" t="s">
         <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T33" t="n">
         <v>180000.0</v>
@@ -5575,7 +5575,7 @@
         <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J34" t="n">
         <v>0.0</v>
@@ -5593,19 +5593,19 @@
         <v>49</v>
       </c>
       <c r="O34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P34" t="s">
         <v>57</v>
       </c>
       <c r="Q34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R34" t="s">
         <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T34" t="n">
         <v>75000.0</v>
@@ -5635,7 +5635,7 @@
         <v>1.0</v>
       </c>
       <c r="AC34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD34" t="n">
         <v>0.0</v>
@@ -5719,7 +5719,7 @@
         <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J35" t="n">
         <v>0.0</v>
@@ -5737,19 +5737,19 @@
         <v>49</v>
       </c>
       <c r="O35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P35" t="s">
         <v>57</v>
       </c>
       <c r="Q35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R35" t="s">
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T35" t="n">
         <v>120000.0</v>
@@ -5779,7 +5779,7 @@
         <v>1.0</v>
       </c>
       <c r="AC35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD35" t="n">
         <v>0.0</v>
@@ -5863,7 +5863,7 @@
         <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -5893,7 +5893,7 @@
         <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T36" t="n">
         <v>50000.0</v>
@@ -6005,7 +6005,7 @@
         <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
@@ -6023,19 +6023,19 @@
         <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="P37" t="s">
         <v>49</v>
       </c>
       <c r="Q37" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="R37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T37" t="n">
         <v>29600.0</v>
@@ -6044,7 +6044,7 @@
         <v>14800.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0</v>
+        <v>14800.0</v>
       </c>
       <c r="W37" t="n">
         <v>0.0</v>
@@ -6065,7 +6065,7 @@
         <v>1.0</v>
       </c>
       <c r="AC37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD37" t="n">
         <v>0.0</v>
@@ -6119,7 +6119,7 @@
         <v>49</v>
       </c>
       <c r="AU37" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV37"/>
     </row>
@@ -6149,7 +6149,7 @@
         <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J38" t="n">
         <v>0.0</v>
@@ -6167,19 +6167,19 @@
         <v>49</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P38" t="s">
         <v>49</v>
       </c>
       <c r="Q38" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R38" t="s">
         <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T38" t="n">
         <v>500000.0</v>
@@ -6188,7 +6188,7 @@
         <v>250000.0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>250000.0</v>
       </c>
       <c r="W38" t="n">
         <v>0.0</v>
@@ -6209,7 +6209,7 @@
         <v>1.0</v>
       </c>
       <c r="AC38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AD38" t="n">
         <v>0.0</v>
@@ -6263,7 +6263,7 @@
         <v>49</v>
       </c>
       <c r="AU38" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV38"/>
     </row>
@@ -6293,7 +6293,7 @@
         <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J39" t="n">
         <v>0.0</v>
@@ -6323,7 +6323,7 @@
         <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T39" t="n">
         <v>125000.0</v>
@@ -6435,7 +6435,7 @@
         <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
@@ -6465,7 +6465,7 @@
         <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T40" t="n">
         <v>450000.0</v>
@@ -6577,7 +6577,7 @@
         <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -6595,19 +6595,19 @@
         <v>49</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s">
         <v>57</v>
       </c>
       <c r="Q41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R41" t="s">
         <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T41" t="n">
         <v>142500.0</v>
@@ -6637,7 +6637,7 @@
         <v>1.0</v>
       </c>
       <c r="AC41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD41" t="n">
         <v>0.0</v>
@@ -6721,7 +6721,7 @@
         <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -6739,19 +6739,19 @@
         <v>49</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P42" t="s">
         <v>57</v>
       </c>
       <c r="Q42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R42" t="s">
         <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T42" t="n">
         <v>569000.0</v>
@@ -6781,7 +6781,7 @@
         <v>1.0</v>
       </c>
       <c r="AC42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD42" t="n">
         <v>0.0</v>
@@ -6865,7 +6865,7 @@
         <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -6883,19 +6883,19 @@
         <v>49</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P43" t="s">
         <v>57</v>
       </c>
       <c r="Q43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R43" t="s">
         <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T43" t="n">
         <v>415000.0</v>
@@ -6925,7 +6925,7 @@
         <v>1.0</v>
       </c>
       <c r="AC43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD43" t="n">
         <v>0.0</v>
@@ -7009,7 +7009,7 @@
         <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -7027,19 +7027,19 @@
         <v>49</v>
       </c>
       <c r="O44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P44" t="s">
         <v>57</v>
       </c>
       <c r="Q44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R44" t="s">
         <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T44" t="n">
         <v>725000.0</v>
@@ -7069,7 +7069,7 @@
         <v>1.0</v>
       </c>
       <c r="AC44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD44" t="n">
         <v>0.0</v>
@@ -7153,7 +7153,7 @@
         <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J45" t="n">
         <v>0.0</v>
@@ -7171,19 +7171,19 @@
         <v>49</v>
       </c>
       <c r="O45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P45" t="s">
         <v>57</v>
       </c>
       <c r="Q45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R45" t="s">
         <v>55</v>
       </c>
       <c r="S45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T45" t="n">
         <v>360000.0</v>
@@ -7295,7 +7295,7 @@
         <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J46" t="n">
         <v>0.0</v>
@@ -7313,19 +7313,19 @@
         <v>49</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P46" t="s">
         <v>57</v>
       </c>
       <c r="Q46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R46" t="s">
         <v>55</v>
       </c>
       <c r="S46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T46" t="n">
         <v>400000.0</v>
@@ -7437,7 +7437,7 @@
         <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J47" t="n">
         <v>0.0</v>
@@ -7455,19 +7455,19 @@
         <v>49</v>
       </c>
       <c r="O47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P47" t="s">
         <v>57</v>
       </c>
       <c r="Q47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R47" t="s">
         <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T47" t="n">
         <v>3.0E7</v>
@@ -7579,7 +7579,7 @@
         <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J48" t="n">
         <v>0.0</v>
@@ -7597,19 +7597,19 @@
         <v>49</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P48" t="s">
         <v>57</v>
       </c>
       <c r="Q48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R48" t="s">
         <v>55</v>
       </c>
       <c r="S48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T48" t="n">
         <v>1020000.0</v>
@@ -7639,7 +7639,7 @@
         <v>1.0</v>
       </c>
       <c r="AC48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD48" t="n">
         <v>0.0</v>
@@ -7723,7 +7723,7 @@
         <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -7741,19 +7741,19 @@
         <v>49</v>
       </c>
       <c r="O49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P49" t="s">
         <v>57</v>
       </c>
       <c r="Q49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R49" t="s">
         <v>55</v>
       </c>
       <c r="S49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T49" t="n">
         <v>160000.0</v>
@@ -7783,7 +7783,7 @@
         <v>1.0</v>
       </c>
       <c r="AC49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD49" t="n">
         <v>0.0</v>
@@ -7867,7 +7867,7 @@
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J50" t="n">
         <v>0.0</v>
@@ -7885,19 +7885,19 @@
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P50" t="s">
         <v>57</v>
       </c>
       <c r="Q50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R50" t="s">
         <v>55</v>
       </c>
       <c r="S50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T50" t="n">
         <v>245000.0</v>
@@ -7927,7 +7927,7 @@
         <v>1.0</v>
       </c>
       <c r="AC50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AD50" t="n">
         <v>0.0</v>
@@ -8011,7 +8011,7 @@
         <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
@@ -8029,19 +8029,19 @@
         <v>49</v>
       </c>
       <c r="O51" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="P51" t="s">
         <v>49</v>
       </c>
       <c r="Q51" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="R51" t="s">
         <v>81</v>
       </c>
       <c r="S51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T51" t="n">
         <v>3375000.0</v>
@@ -8050,7 +8050,7 @@
         <v>1687500.0</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0</v>
+        <v>1687500.0</v>
       </c>
       <c r="W51" t="n">
         <v>0.0</v>
@@ -8071,7 +8071,7 @@
         <v>1.0</v>
       </c>
       <c r="AC51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD51" t="n">
         <v>0.0</v>
@@ -8125,7 +8125,7 @@
         <v>49</v>
       </c>
       <c r="AU51" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV51"/>
     </row>
@@ -8155,7 +8155,7 @@
         <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -8173,19 +8173,19 @@
         <v>49</v>
       </c>
       <c r="O52" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="P52" t="s">
         <v>49</v>
       </c>
       <c r="Q52" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="R52" t="s">
         <v>81</v>
       </c>
       <c r="S52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T52" t="n">
         <v>1500000.0</v>
@@ -8194,7 +8194,7 @@
         <v>750000.0</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0</v>
+        <v>750000.0</v>
       </c>
       <c r="W52" t="n">
         <v>0.0</v>
@@ -8215,7 +8215,7 @@
         <v>1.0</v>
       </c>
       <c r="AC52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD52" t="n">
         <v>0.0</v>
@@ -8269,7 +8269,7 @@
         <v>49</v>
       </c>
       <c r="AU52" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV52"/>
     </row>
@@ -8299,7 +8299,7 @@
         <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -8317,19 +8317,19 @@
         <v>49</v>
       </c>
       <c r="O53" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="P53" t="s">
         <v>49</v>
       </c>
       <c r="Q53" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="R53" t="s">
         <v>81</v>
       </c>
       <c r="S53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T53" t="n">
         <v>465000.0</v>
@@ -8338,7 +8338,7 @@
         <v>232500.0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0</v>
+        <v>232500.0</v>
       </c>
       <c r="W53" t="n">
         <v>0.0</v>
@@ -8359,7 +8359,7 @@
         <v>1.0</v>
       </c>
       <c r="AC53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD53" t="n">
         <v>0.0</v>
@@ -8413,7 +8413,7 @@
         <v>49</v>
       </c>
       <c r="AU53" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV53"/>
     </row>
@@ -8443,7 +8443,7 @@
         <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J54" t="n">
         <v>0.0</v>
@@ -8461,19 +8461,19 @@
         <v>49</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="P54" t="s">
         <v>49</v>
       </c>
       <c r="Q54" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="R54" t="s">
         <v>81</v>
       </c>
       <c r="S54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T54" t="n">
         <v>380000.0</v>
@@ -8482,7 +8482,7 @@
         <v>190000.0</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0</v>
+        <v>190000.0</v>
       </c>
       <c r="W54" t="n">
         <v>0.0</v>
@@ -8503,7 +8503,7 @@
         <v>1.0</v>
       </c>
       <c r="AC54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD54" t="n">
         <v>0.0</v>
@@ -8557,7 +8557,7 @@
         <v>49</v>
       </c>
       <c r="AU54" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV54"/>
     </row>
@@ -8587,7 +8587,7 @@
         <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J55" t="n">
         <v>0.0</v>
@@ -8599,25 +8599,25 @@
         <v>0.0</v>
       </c>
       <c r="M55" t="s">
+        <v>188</v>
+      </c>
+      <c r="N55" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" t="s">
+        <v>190</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" t="s">
         <v>191</v>
       </c>
-      <c r="N55" t="s">
-        <v>49</v>
-      </c>
-      <c r="O55" t="s">
-        <v>84</v>
-      </c>
-      <c r="P55" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>85</v>
-      </c>
       <c r="R55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T55" t="n">
         <v>0.0</v>
@@ -8699,7 +8699,7 @@
         <v>49</v>
       </c>
       <c r="AU55" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="AV55"/>
     </row>
@@ -8747,19 +8747,19 @@
         <v>49</v>
       </c>
       <c r="O56" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="P56" t="s">
         <v>49</v>
       </c>
       <c r="Q56" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="R56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T56" t="n">
         <v>30000.0</v>
@@ -8768,7 +8768,7 @@
         <v>15000.0</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0</v>
+        <v>15000.0</v>
       </c>
       <c r="W56" t="n">
         <v>0.0</v>
@@ -8789,7 +8789,7 @@
         <v>1.0</v>
       </c>
       <c r="AC56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD56" t="n">
         <v>0.0</v>
@@ -8843,7 +8843,7 @@
         <v>49</v>
       </c>
       <c r="AU56" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV56"/>
     </row>
@@ -8891,19 +8891,19 @@
         <v>49</v>
       </c>
       <c r="O57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
         <v>57</v>
       </c>
       <c r="Q57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T57" t="n">
         <v>4518000.0</v>
@@ -9033,19 +9033,19 @@
         <v>49</v>
       </c>
       <c r="O58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P58" t="s">
         <v>57</v>
       </c>
       <c r="Q58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T58" t="n">
         <v>2985000.0</v>
@@ -9075,7 +9075,7 @@
         <v>1.0</v>
       </c>
       <c r="AC58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD58" t="n">
         <v>0.0</v>
@@ -9177,13 +9177,13 @@
         <v>49</v>
       </c>
       <c r="O59" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P59" t="s">
         <v>49</v>
       </c>
       <c r="Q59" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R59" t="s">
         <v>81</v>
@@ -9198,7 +9198,7 @@
         <v>112500.0</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0</v>
+        <v>112500.0</v>
       </c>
       <c r="W59" t="n">
         <v>0.0</v>
@@ -9273,7 +9273,7 @@
         <v>49</v>
       </c>
       <c r="AU59" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV59"/>
     </row>
@@ -9321,13 +9321,13 @@
         <v>49</v>
       </c>
       <c r="O60" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
       </c>
       <c r="Q60" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R60" t="s">
         <v>81</v>
@@ -9342,7 +9342,7 @@
         <v>177000.0</v>
       </c>
       <c r="V60" t="n">
-        <v>0.0</v>
+        <v>177000.0</v>
       </c>
       <c r="W60" t="n">
         <v>0.0</v>
@@ -9417,7 +9417,7 @@
         <v>49</v>
       </c>
       <c r="AU60" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV60"/>
     </row>
@@ -9465,13 +9465,13 @@
         <v>49</v>
       </c>
       <c r="O61" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P61" t="s">
         <v>49</v>
       </c>
       <c r="Q61" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R61" t="s">
         <v>81</v>
@@ -9486,7 +9486,7 @@
         <v>225000.0</v>
       </c>
       <c r="V61" t="n">
-        <v>0.0</v>
+        <v>225000.0</v>
       </c>
       <c r="W61" t="n">
         <v>0.0</v>
@@ -9561,7 +9561,7 @@
         <v>49</v>
       </c>
       <c r="AU61" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV61"/>
     </row>
@@ -9630,7 +9630,7 @@
         <v>500000.0</v>
       </c>
       <c r="V62" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="W62" t="n">
         <v>0.0</v>
@@ -9705,7 +9705,7 @@
         <v>49</v>
       </c>
       <c r="AU62" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV62"/>
     </row>
@@ -9753,13 +9753,13 @@
         <v>49</v>
       </c>
       <c r="O63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P63" t="s">
         <v>57</v>
       </c>
       <c r="Q63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R63" t="s">
         <v>55</v>
@@ -9895,13 +9895,13 @@
         <v>49</v>
       </c>
       <c r="O64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P64" t="s">
         <v>57</v>
       </c>
       <c r="Q64" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R64" t="s">
         <v>55</v>
@@ -10039,13 +10039,13 @@
         <v>49</v>
       </c>
       <c r="O65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P65" t="s">
         <v>57</v>
       </c>
       <c r="Q65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R65" t="s">
         <v>55</v>
@@ -10893,13 +10893,13 @@
         <v>49</v>
       </c>
       <c r="O71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P71" t="s">
         <v>57</v>
       </c>
       <c r="Q71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R71" t="s">
         <v>55</v>
@@ -11321,13 +11321,13 @@
         <v>49</v>
       </c>
       <c r="O74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P74" t="s">
         <v>57</v>
       </c>
       <c r="Q74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R74" t="s">
         <v>55</v>
@@ -11465,13 +11465,13 @@
         <v>49</v>
       </c>
       <c r="O75" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P75" t="s">
         <v>49</v>
       </c>
       <c r="Q75" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="R75" t="s">
         <v>81</v>
@@ -11486,7 +11486,7 @@
         <v>250000.0</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0</v>
+        <v>250000.0</v>
       </c>
       <c r="W75" t="n">
         <v>0.0</v>
@@ -11561,7 +11561,7 @@
         <v>49</v>
       </c>
       <c r="AU75" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AV75"/>
     </row>
@@ -11609,13 +11609,13 @@
         <v>49</v>
       </c>
       <c r="O76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P76" t="s">
         <v>57</v>
       </c>
       <c r="Q76" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R76" t="s">
         <v>55</v>
@@ -12759,13 +12759,13 @@
         <v>49</v>
       </c>
       <c r="O84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s">
         <v>57</v>
       </c>
       <c r="Q84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R84" t="s">
         <v>55</v>
@@ -12901,13 +12901,13 @@
         <v>49</v>
       </c>
       <c r="O85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P85" t="s">
         <v>57</v>
       </c>
       <c r="Q85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R85" t="s">
         <v>55</v>
@@ -13185,13 +13185,13 @@
         <v>49</v>
       </c>
       <c r="O87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P87" t="s">
         <v>57</v>
       </c>
       <c r="Q87" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R87" t="s">
         <v>55</v>
